--- a/Additional_supplementary_tables/Additional supplementary table 1.xlsx
+++ b/Additional_supplementary_tables/Additional supplementary table 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GitHub\Bacterial_homologs_of_innate_eukaryotic_antiviral_defenses\Additional_supplementary_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6728E670-5F26-4E8A-89EF-7DCA90B4B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492690F-F9A1-423C-8F41-15832C3FA713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34DA29B1-8280-47DD-881D-1D675D78FA58}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>K5993</t>
   </si>
   <si>
-    <t>Pan</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
   </si>
   <si>
     <t>K6024</t>
-  </si>
-  <si>
-    <t>Nyx</t>
   </si>
   <si>
     <t>NACHT, TPR, NucS</t>
@@ -192,6 +186,12 @@
       </rPr>
       <t xml:space="preserve"> All information on the newly found systems.</t>
     </r>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Erebus</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,23 +512,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -849,7 +842,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -907,22 +900,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,51 +923,51 @@
         <v>220</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>13</v>
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>321</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,19 +977,19 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>24</v>
+      <c r="G6" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,51 +997,51 @@
         <v>418</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>29</v>
+      <c r="G7" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>712</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1057,94 +1050,91 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>36</v>
+      <c r="G9" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>682</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>37</v>
+      <c r="G10" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>682</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>38</v>
+      <c r="G11" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>682</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>39</v>
+      <c r="G12" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,22 +1143,22 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>40</v>
+      <c r="G13" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
